--- a/MVP/SHOPPING_LISTS/INACOM.xlsx
+++ b/MVP/SHOPPING_LISTS/INACOM.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -46,6 +46,18 @@
     <t>QTY.</t>
   </si>
   <si>
+    <t>13-018362</t>
+  </si>
+  <si>
+    <t>13-018394</t>
+  </si>
+  <si>
+    <t>13-018395</t>
+  </si>
+  <si>
+    <t>13-018396</t>
+  </si>
+  <si>
     <t>13-018357</t>
   </si>
   <si>
@@ -73,6 +85,18 @@
     <t>13-018708</t>
   </si>
   <si>
+    <t xml:space="preserve">MVP-PRT: 2 PORT BOTTLE CAP </t>
+  </si>
+  <si>
+    <t>MVP-PRT: LUER ADAPTER</t>
+  </si>
+  <si>
+    <t>MVP-PRT: LUER PLUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVP-PRT: 4 PORT WASTE CAP </t>
+  </si>
+  <si>
     <t>MVP-PRT: FLANGELESS FITTING PEEK 5/16-24, 1/8" OD</t>
   </si>
   <si>
@@ -103,6 +127,18 @@
     <t>INACOM</t>
   </si>
   <si>
+    <t>00938T-2F</t>
+  </si>
+  <si>
+    <t>009LA</t>
+  </si>
+  <si>
+    <t>009LP</t>
+  </si>
+  <si>
+    <t>00938T-4W</t>
+  </si>
+  <si>
     <t>XP-130</t>
   </si>
   <si>
@@ -128,6 +164,9 @@
   </si>
   <si>
     <t>P-309</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Polyetheretherketone (PEEK)</t>
@@ -502,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -516,7 +555,7 @@
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="50.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="39.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
@@ -553,91 +592,91 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I3" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="1">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="1">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -645,22 +684,22 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -668,90 +707,182 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="1">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="1">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="1">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="1">
         <v>36</v>
       </c>
-      <c r="I10" s="1">
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="1">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="1">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="1">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="1">
         <v>5</v>
       </c>
     </row>

--- a/MVP/SHOPPING_LISTS/INACOM.xlsx
+++ b/MVP/SHOPPING_LISTS/INACOM.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee1e2ca77da94d7e/Nascent Ventures BV/Participaties/Vitrotem BV/13 R^0D/1. Device/MVP/SHOPPING_LISTS/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_61E5A5DDAAA3403228406D4B99C7FAF86D94B9B1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C87B7D5-9DF3-4567-B148-32777F6EDCB0}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -31,18 +37,9 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>Vendor</t>
-  </si>
-  <si>
     <t>VendorNo</t>
   </si>
   <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>MATERIAL</t>
-  </si>
-  <si>
     <t>QTY.</t>
   </si>
   <si>
@@ -85,48 +82,6 @@
     <t>13-018708</t>
   </si>
   <si>
-    <t xml:space="preserve">MVP-PRT: 2 PORT BOTTLE CAP </t>
-  </si>
-  <si>
-    <t>MVP-PRT: LUER ADAPTER</t>
-  </si>
-  <si>
-    <t>MVP-PRT: LUER PLUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MVP-PRT: 4 PORT WASTE CAP </t>
-  </si>
-  <si>
-    <t>MVP-PRT: FLANGELESS FITTING PEEK 5/16-24, 1/8" OD</t>
-  </si>
-  <si>
-    <t>MVP-PRT: FITTING PEEK 1/4-28, 1/16" OD</t>
-  </si>
-  <si>
-    <t>MVP-PRT: ADAPTER 1/4-28 x 5/16-24 PEEK</t>
-  </si>
-  <si>
-    <t>MVP-PRT: PEEK MANIFOLD 5 Port,1/16"</t>
-  </si>
-  <si>
-    <t>MVP-PRT: FITTING PEEK 1/4-28 - 1/8" OD</t>
-  </si>
-  <si>
-    <t>MVP-PRT: PEEK Y CONNECTOR</t>
-  </si>
-  <si>
-    <t>MVP-PRT: FITTING PEEK 1/2-20, 1/4" OD</t>
-  </si>
-  <si>
-    <t>MVP-PRT: FLANGELESS FITTING PEEK 1/2-20, 1/4" OD</t>
-  </si>
-  <si>
-    <t>MVP-PRT:  DELRIN PLUG, 1/4-28 FLAT BOTTOM</t>
-  </si>
-  <si>
-    <t>INACOM</t>
-  </si>
-  <si>
     <t>00938T-2F</t>
   </si>
   <si>
@@ -166,17 +121,50 @@
     <t>P-309</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Polyetheretherketone (PEEK)</t>
+    <t xml:space="preserve">2 PORT BOTTLE CAP </t>
+  </si>
+  <si>
+    <t>LUER ADAPTER</t>
+  </si>
+  <si>
+    <t>LUER PLUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 PORT WASTE CAP </t>
+  </si>
+  <si>
+    <t>FLANGELESS FITTING PEEK 5/16-24, 1/8" OD</t>
+  </si>
+  <si>
+    <t>FITTING PEEK 1/4-28, 1/16" OD</t>
+  </si>
+  <si>
+    <t>ADAPTER 1/4-28 x 5/16-24 PEEK</t>
+  </si>
+  <si>
+    <t>PEEK MANIFOLD 5 Port,1/16"</t>
+  </si>
+  <si>
+    <t>FITTING PEEK 1/4-28 - 1/8" OD</t>
+  </si>
+  <si>
+    <t>PEEK Y CONNECTOR</t>
+  </si>
+  <si>
+    <t>FITTING PEEK 1/2-20, 1/4" OD</t>
+  </si>
+  <si>
+    <t>FLANGELESS FITTING PEEK 1/2-20, 1/4" OD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DELRIN PLUG, 1/4-28 FLAT BOTTOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +241,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -299,7 +295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -331,9 +327,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,6 +379,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -540,28 +572,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="26" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="39.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="1"/>
+    <col min="2" max="2" width="14.73046875" customWidth="1"/>
+    <col min="3" max="3" width="21.73046875" customWidth="1"/>
+    <col min="4" max="4" width="66.73046875" customWidth="1"/>
+    <col min="5" max="5" width="21.73046875" customWidth="1"/>
+    <col min="6" max="6" width="14.73046875" customWidth="1"/>
+    <col min="7" max="23" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -580,314 +610,230 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B2" s="1">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="1">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="1">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="1">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="1">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="1">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="1">
+        <v>26</v>
+      </c>
+      <c r="F9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="1">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="1">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="1">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="1">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="1">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MVP/SHOPPING_LISTS/INACOM.xlsx
+++ b/MVP/SHOPPING_LISTS/INACOM.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee1e2ca77da94d7e/Nascent Ventures BV/Participaties/Vitrotem BV/13 R^0D/1. Device/MVP/SHOPPING_LISTS/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_61E5A5DDAAA3403228406D4B99C7FAF86D94B9B1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C87B7D5-9DF3-4567-B148-32777F6EDCB0}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -37,9 +31,18 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
+    <t>Vendor</t>
+  </si>
+  <si>
     <t>VendorNo</t>
   </si>
   <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>MATERIAL</t>
+  </si>
+  <si>
     <t>QTY.</t>
   </si>
   <si>
@@ -82,6 +85,48 @@
     <t>13-018708</t>
   </si>
   <si>
+    <t xml:space="preserve">MVP-PRT: 2 PORT BOTTLE CAP </t>
+  </si>
+  <si>
+    <t>MVP-PRT: LUER ADAPTER</t>
+  </si>
+  <si>
+    <t>MVP-PRT: LUER PLUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVP-PRT: 4 PORT WASTE CAP </t>
+  </si>
+  <si>
+    <t>MVP-PRT: FLANGELESS FITTING PEEK 5/16-24, 1/8" OD</t>
+  </si>
+  <si>
+    <t>MVP-PRT: FITTING PEEK 1/4-28, 1/16" OD</t>
+  </si>
+  <si>
+    <t>MVP-PRT: ADAPTER 1/4-28 x 5/16-24 PEEK</t>
+  </si>
+  <si>
+    <t>MVP-PRT: PEEK MANIFOLD 5 Port,1/16"</t>
+  </si>
+  <si>
+    <t>MVP-PRT: FITTING PEEK 1/4-28 - 1/8" OD</t>
+  </si>
+  <si>
+    <t>MVP-PRT: PEEK Y CONNECTOR</t>
+  </si>
+  <si>
+    <t>MVP-PRT: FITTING PEEK 1/2-20, 1/4" OD</t>
+  </si>
+  <si>
+    <t>MVP-PRT: FLANGELESS FITTING PEEK 1/2-20, 1/4" OD</t>
+  </si>
+  <si>
+    <t>MVP-PRT:  DELRIN PLUG, 1/4-28 FLAT BOTTOM</t>
+  </si>
+  <si>
+    <t>INACOM</t>
+  </si>
+  <si>
     <t>00938T-2F</t>
   </si>
   <si>
@@ -121,50 +166,17 @@
     <t>P-309</t>
   </si>
   <si>
-    <t xml:space="preserve">2 PORT BOTTLE CAP </t>
-  </si>
-  <si>
-    <t>LUER ADAPTER</t>
-  </si>
-  <si>
-    <t>LUER PLUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 PORT WASTE CAP </t>
-  </si>
-  <si>
-    <t>FLANGELESS FITTING PEEK 5/16-24, 1/8" OD</t>
-  </si>
-  <si>
-    <t>FITTING PEEK 1/4-28, 1/16" OD</t>
-  </si>
-  <si>
-    <t>ADAPTER 1/4-28 x 5/16-24 PEEK</t>
-  </si>
-  <si>
-    <t>PEEK MANIFOLD 5 Port,1/16"</t>
-  </si>
-  <si>
-    <t>FITTING PEEK 1/4-28 - 1/8" OD</t>
-  </si>
-  <si>
-    <t>PEEK Y CONNECTOR</t>
-  </si>
-  <si>
-    <t>FITTING PEEK 1/2-20, 1/4" OD</t>
-  </si>
-  <si>
-    <t>FLANGELESS FITTING PEEK 1/2-20, 1/4" OD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DELRIN PLUG, 1/4-28 FLAT BOTTOM</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Polyetheretherketone (PEEK)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,14 +253,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -295,7 +299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,27 +331,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,24 +365,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -572,26 +540,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="1"/>
-    <col min="2" max="2" width="14.73046875" customWidth="1"/>
-    <col min="3" max="3" width="21.73046875" customWidth="1"/>
-    <col min="4" max="4" width="66.73046875" customWidth="1"/>
-    <col min="5" max="5" width="21.73046875" customWidth="1"/>
-    <col min="6" max="6" width="14.73046875" customWidth="1"/>
-    <col min="7" max="23" width="9.1328125" style="1"/>
+    <col min="1" max="26" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -610,230 +580,314 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="B2" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="1">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="1">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="1">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="1">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="1">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="1">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="1">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="1">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="1">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="1">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B3" s="1">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="1">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B4" s="1">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="1">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B5" s="1">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B6" s="1">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="1">
-        <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="1">
-        <v>33</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B9" s="1">
-        <v>34</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="1">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="1">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B12" s="1">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B13" s="1">
-        <v>38</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B14" s="1">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="1">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="1">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>